--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1344281.02006135</v>
+        <v>-1346555.040188787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.015117382</v>
+        <v>7230781.015117378</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.30983466349943</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.04590347118615</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910657</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.060035225735</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>277.6837926098971</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>58.46640406659916</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
-        <v>66.2437637269483</v>
+        <v>66.24376372694829</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653463</v>
+        <v>58.40598506653461</v>
       </c>
       <c r="S3" t="n">
         <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
         <v>225.8971409297816</v>
@@ -798,10 +798,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>145.7716526109663</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.0976945175838</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9967563745902</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>111.1296671927063</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>83.92757720509674</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1023,7 +1023,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>53.80100608808075</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>45.41161064795046</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>278.1360326165891</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>393.7001561524376</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.02457248166894</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>138.5363395293734</v>
       </c>
       <c r="T13" t="n">
-        <v>191.0001693352787</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>12.07826384260697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>37.59617708813261</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>35.29706439293589</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>90.30873340438151</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,13 +2293,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>32.52207646038721</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796243</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>14.20188851094889</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,10 +2530,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>34.987230763697</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>4.66728215541271</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>106.09009688529</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,13 +2767,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>201.0130390227247</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>126.0960504902342</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3503,19 +3503,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.458826027977</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124621</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3740,19 +3740,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3791,7 +3791,7 @@
         <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1217.120059489876</v>
+        <v>938.7790166382742</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.120059489876</v>
+        <v>569.8164996978626</v>
       </c>
       <c r="D2" t="n">
-        <v>858.854360883126</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="E2" t="n">
-        <v>473.0661082848817</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="F2" t="n">
-        <v>62.08020349527412</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="G2" t="n">
-        <v>47.89242221124771</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124771</v>
+        <v>211.5508010911121</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124771</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034137</v>
+        <v>141.6681220034136</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971219</v>
+        <v>402.958391397122</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883424</v>
+        <v>779.3887029883429</v>
       </c>
       <c r="M2" t="n">
-        <v>1214.846500462594</v>
+        <v>1214.846500462595</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811277</v>
+        <v>1642.718462811278</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006098</v>
+        <v>2001.558186006099</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794932</v>
+        <v>2270.145204794933</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562385</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.621110562385</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="S2" t="n">
-        <v>2212.419126916163</v>
+        <v>2212.419126916164</v>
       </c>
       <c r="T2" t="n">
-        <v>2212.419126916163</v>
+        <v>2212.419126916164</v>
       </c>
       <c r="U2" t="n">
-        <v>1958.636191376446</v>
+        <v>1958.636191376447</v>
       </c>
       <c r="V2" t="n">
-        <v>1958.636191376446</v>
+        <v>1958.636191376447</v>
       </c>
       <c r="W2" t="n">
-        <v>1656.555347714087</v>
+        <v>1605.867536106332</v>
       </c>
       <c r="X2" t="n">
-        <v>1283.089589453007</v>
+        <v>1325.378856702396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1283.089589453007</v>
+        <v>1325.378856702396</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>873.4292112146536</v>
+        <v>988.825266691135</v>
       </c>
       <c r="C3" t="n">
         <v>814.372237410008</v>
@@ -4404,55 +4404,55 @@
         <v>114.8053148647308</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124771</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="J3" t="n">
-        <v>47.89242221124771</v>
+        <v>110.0512068966012</v>
       </c>
       <c r="K3" t="n">
-        <v>280.7525288588861</v>
+        <v>342.9113135442397</v>
       </c>
       <c r="L3" t="n">
-        <v>655.2660752554723</v>
+        <v>717.4248599408259</v>
       </c>
       <c r="M3" t="n">
-        <v>1144.284940877816</v>
+        <v>1206.44372556317</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.953694139592</v>
+        <v>1523.324441723576</v>
       </c>
       <c r="O3" t="n">
-        <v>2069.103790323044</v>
+        <v>1930.474537907028</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403388</v>
+        <v>2240.245317403389</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562385</v>
+        <v>2394.621110562386</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050734</v>
+        <v>2335.625166050735</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.824742397255</v>
+        <v>2174.824742397256</v>
       </c>
       <c r="T3" t="n">
-        <v>2174.824742397255</v>
+        <v>1975.376034486433</v>
       </c>
       <c r="U3" t="n">
-        <v>1946.645812165153</v>
+        <v>1747.19710425433</v>
       </c>
       <c r="V3" t="n">
-        <v>1711.49370393341</v>
+        <v>1512.044996022587</v>
       </c>
       <c r="W3" t="n">
-        <v>1457.256347205208</v>
+        <v>1512.044996022587</v>
       </c>
       <c r="X3" t="n">
-        <v>1249.404846999676</v>
+        <v>1364.800902476157</v>
       </c>
       <c r="Y3" t="n">
-        <v>1041.644548234722</v>
+        <v>1157.040603711203</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.8055157936408</v>
+        <v>367.1274524058063</v>
       </c>
       <c r="C4" t="n">
-        <v>195.8055157936408</v>
+        <v>367.1274524058063</v>
       </c>
       <c r="D4" t="n">
-        <v>195.8055157936408</v>
+        <v>217.0108129934705</v>
       </c>
       <c r="E4" t="n">
-        <v>47.89242221124771</v>
+        <v>217.0108129934705</v>
       </c>
       <c r="F4" t="n">
-        <v>47.89242221124771</v>
+        <v>217.0108129934705</v>
       </c>
       <c r="G4" t="n">
-        <v>47.89242221124771</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="H4" t="n">
-        <v>47.89242221124771</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="I4" t="n">
-        <v>47.89242221124771</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124771</v>
+        <v>47.89242221124772</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000106</v>
+        <v>90.6907364200011</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663084</v>
+        <v>200.9842782663085</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420748</v>
+        <v>327.6624769420749</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148806</v>
+        <v>456.7631676148807</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890159</v>
+        <v>559.992255489016</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124564</v>
+        <v>624.8018913124565</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.8018913124564</v>
+        <v>624.8018913124565</v>
       </c>
       <c r="R4" t="n">
-        <v>624.8018913124564</v>
+        <v>624.8018913124565</v>
       </c>
       <c r="S4" t="n">
-        <v>624.8018913124564</v>
+        <v>624.8018913124565</v>
       </c>
       <c r="T4" t="n">
-        <v>624.8018913124564</v>
+        <v>624.8018913124565</v>
       </c>
       <c r="U4" t="n">
-        <v>624.8018913124564</v>
+        <v>367.1274524058063</v>
       </c>
       <c r="V4" t="n">
-        <v>423.7950666916582</v>
+        <v>367.1274524058063</v>
       </c>
       <c r="W4" t="n">
-        <v>423.7950666916582</v>
+        <v>367.1274524058063</v>
       </c>
       <c r="X4" t="n">
-        <v>195.8055157936408</v>
+        <v>367.1274524058063</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.8055157936408</v>
+        <v>367.1274524058063</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>577.1810756935138</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>166.1951709039062</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2139.977308118178</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2139.977308118178</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1766.511549857098</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,7 +4647,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4671,22 +4671,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>652.8417512742476</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>652.8417512742476</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>108.2874324143854</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>108.2874324143854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.683768698139</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.683768698139</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="D8" t="n">
-        <v>836.4180700913887</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="9">
@@ -4893,10 +4893,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.1363086691491</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C10" t="n">
-        <v>77.20012574124218</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>77.20012574124218</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>77.20012574124218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>77.20012574124218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>606.6572030209802</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1363086691491</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W10" t="n">
-        <v>246.1363086691491</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X10" t="n">
-        <v>246.1363086691491</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.1363086691491</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="11">
@@ -5045,22 +5045,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1076.848340014667</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>709.4168978689405</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1726.577312367915</v>
       </c>
       <c r="T13" t="n">
-        <v>1763.414002129675</v>
+        <v>1504.810696937441</v>
       </c>
       <c r="U13" t="n">
-        <v>1474.311135255318</v>
+        <v>1215.707830063084</v>
       </c>
       <c r="V13" t="n">
-        <v>1219.626647049431</v>
+        <v>1215.707830063084</v>
       </c>
       <c r="W13" t="n">
-        <v>930.2094770124706</v>
+        <v>1215.707830063084</v>
       </c>
       <c r="X13" t="n">
-        <v>930.2094770124706</v>
+        <v>987.7182791650667</v>
       </c>
       <c r="Y13" t="n">
-        <v>709.4168978689405</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608916</v>
+        <v>750.1800661608922</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M14" t="n">
         <v>2593.249184644075</v>
@@ -5291,7 +5291,7 @@
         <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>815.0433889280855</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>646.1072060001786</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>646.1072060001786</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>498.1941124177855</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>351.3041649198751</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1629.264662777688</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W16" t="n">
-        <v>1339.847492740728</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.85794184271</v>
+        <v>1217.484432901855</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>996.6918537583252</v>
       </c>
     </row>
     <row r="17">
@@ -5498,52 +5498,52 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>722.4071781934688</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846824</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5583,22 +5583,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.5269503710301</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C19" t="n">
-        <v>393.5907674431232</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5683,40 +5683,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862234</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.82712468906</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258586</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.95764238423</v>
+        <v>1830.859408465326</v>
       </c>
       <c r="V19" t="n">
-        <v>1163.95764238423</v>
+        <v>1576.174920259439</v>
       </c>
       <c r="W19" t="n">
-        <v>874.5404723472689</v>
+        <v>1286.757750222479</v>
       </c>
       <c r="X19" t="n">
-        <v>783.3195295145603</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.5269503710301</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2536.15366264131</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N20" t="n">
-        <v>3130.950021746351</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1420.209926975365</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1165.525438769478</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>876.1082687325173</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>648.1187178345</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>427.3261386909699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2439.038619608516</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667298</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>877.1197344942216</v>
+        <v>278.8425593065527</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663147</v>
+        <v>109.9063763786458</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>109.9063763786458</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>109.9063763786458</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>109.9063763786458</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1507.550329366009</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1507.550329366009</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>1507.550329366009</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X25" t="n">
-        <v>1279.560778467991</v>
+        <v>681.2836032803226</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.768199324461</v>
+        <v>460.4910241367925</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3070.887536710052</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.7380053244393</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="C28" t="n">
-        <v>784.0235789048305</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9069394924948</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="E28" t="n">
-        <v>485.9938459101016</v>
+        <v>300.0484256555945</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258583</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052696</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>1198.376021052696</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>970.386470154679</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y28" t="n">
-        <v>970.386470154679</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>702.918325430551</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1153.95253867896</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>1687.484443350884</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6652,19 +6652,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1339.847492740728</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1339.847492740728</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>582.3166934139181</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6680,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,28 +6777,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E34" t="n">
         <v>463.8981507430897</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6889,7 +6889,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557145</v>
@@ -6941,34 +6941,34 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2240.457506552424</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N35" t="n">
-        <v>2787.236323611206</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O35" t="n">
-        <v>3290.208794490543</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468334</v>
@@ -6977,10 +6977,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7035,7 +7035,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7123,22 +7123,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467783</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557145</v>
@@ -7184,40 +7184,40 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.303399835341</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415478</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643401</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302712</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>907.4660419013967</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1771.984857554751</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2305.516762226675</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873064</v>
@@ -7506,7 +7506,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
@@ -7564,7 +7564,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7573,7 +7573,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350172</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7649,25 +7649,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1771.984857554751</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2305.516762226675</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521972</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834457</v>
@@ -7746,7 +7746,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7807,13 +7807,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>63.30438414308214</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>276.5261752512605</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>178.4332207449704</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>7.630896635344868</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>133.2530576400263</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>105.1996354507095</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>48.50256772349326</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616936</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>351.4175304294038</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>185.3870697685884</v>
+        <v>133.2530576400279</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>85.51392558917655</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704383</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>240.9710754359439</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>274.8351763665437</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>343.5485285966311</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.6874953089251</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>21.13839585591558</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>231.1066821161371</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317.4240069999811</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>156.0979737842496</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.04590347118615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794423</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>92.04730806857197</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.4962987703072</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121513</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5367433600327</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2882781300877</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>51.23268580206854</v>
       </c>
       <c r="T13" t="n">
-        <v>28.54877994088903</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>153.9475444164213</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>214.5414662356954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.914773812677</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>135.4009219846556</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>253.6897617452257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>16.14213605696671</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>151.8239197480793</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>251.2246074419159</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>162.5795389432151</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>39.33095113764125</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>85.19879918288819</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>99.61360489880295</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-5.349054660329762e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1260385.315402372</v>
+        <v>1260385.315402373</v>
       </c>
     </row>
     <row r="3">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153577.9489979128</v>
+        <v>153577.9489979129</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>158832.7147547933</v>
+        <v>158832.7147547932</v>
       </c>
       <c r="F2" t="n">
         <v>158832.7147547932</v>
       </c>
       <c r="G2" t="n">
-        <v>158832.7147547932</v>
+        <v>158832.7147547933</v>
       </c>
       <c r="H2" t="n">
         <v>158832.7147547932</v>
@@ -26335,13 +26335,13 @@
         <v>158832.7147547932</v>
       </c>
       <c r="J2" t="n">
+        <v>158832.7147547933</v>
+      </c>
+      <c r="K2" t="n">
         <v>158832.7147547932</v>
       </c>
-      <c r="K2" t="n">
-        <v>158832.7147547933</v>
-      </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728566</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.681477194</v>
+        <v>501884.6814771942</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904276</v>
+        <v>83720.31263904253</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629962</v>
+        <v>156634.5614629963</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848948</v>
+        <v>19465.25531848936</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950531</v>
+        <v>84741.61795950525</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203100.1933923126</v>
+        <v>203100.1933923127</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
+        <v>28561.83935289579</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="F4" t="n">
-        <v>28561.83935289574</v>
-      </c>
-      <c r="G4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.8393528958</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
-        <v>44019.00033111477</v>
+        <v>44019.00033111485</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.1804254063</v>
+        <v>64344.18042540624</v>
       </c>
       <c r="N4" t="n">
-        <v>64344.18042540629</v>
+        <v>64344.18042540625</v>
       </c>
       <c r="O4" t="n">
-        <v>64344.18042540626</v>
+        <v>64344.18042540628</v>
       </c>
       <c r="P4" t="n">
-        <v>64344.18042540628</v>
+        <v>64344.18042540627</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237218</v>
+        <v>76841.3376923722</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26500,13 +26500,13 @@
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="N5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="O5" t="n">
         <v>89377.94167480612</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89377.94167480612</v>
-      </c>
-      <c r="O5" t="n">
-        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.9416748061</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-628248.2635639659</v>
+        <v>-628381.1436261529</v>
       </c>
       <c r="C6" t="n">
-        <v>-212293.452192629</v>
+        <v>-212293.4521926286</v>
       </c>
       <c r="D6" t="n">
         <v>-128573.1395535861</v>
       </c>
       <c r="E6" t="n">
-        <v>-693490.0568452227</v>
+        <v>-693557.2523354485</v>
       </c>
       <c r="F6" t="n">
-        <v>33887.35714818379</v>
+        <v>33820.16165795801</v>
       </c>
       <c r="G6" t="n">
-        <v>33887.35714818379</v>
+        <v>33820.16165795812</v>
       </c>
       <c r="H6" t="n">
-        <v>33887.35714818382</v>
+        <v>33820.16165795801</v>
       </c>
       <c r="I6" t="n">
-        <v>33887.35714818383</v>
+        <v>33820.16165795793</v>
       </c>
       <c r="J6" t="n">
-        <v>-122747.2043148124</v>
+        <v>-122814.3998050383</v>
       </c>
       <c r="K6" t="n">
-        <v>14422.10182969438</v>
+        <v>14354.90633946862</v>
       </c>
       <c r="L6" t="n">
-        <v>-17723.42666723415</v>
+        <v>-17723.42666723435</v>
       </c>
       <c r="M6" t="n">
-        <v>-74255.38608686114</v>
+        <v>-74255.38608686099</v>
       </c>
       <c r="N6" t="n">
-        <v>10486.2318726443</v>
+        <v>10486.23187264435</v>
       </c>
       <c r="O6" t="n">
-        <v>10486.2318726442</v>
+        <v>10486.23187264419</v>
       </c>
       <c r="P6" t="n">
-        <v>10486.2318726442</v>
+        <v>10486.23187264425</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859259</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322901</v>
+        <v>312.6374684322903</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405963</v>
+        <v>598.6552776405965</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,13 +26820,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="O4" t="n">
         <v>1014.336461208615</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322901</v>
+        <v>312.6374684322903</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479651</v>
+        <v>65.10619578479634</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405963</v>
+        <v>598.6552776405965</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395931</v>
+        <v>75.63199511395908</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405963</v>
+        <v>598.6552776405968</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395931</v>
+        <v>75.63199511395885</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540589</v>
+        <v>340.0491884540588</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405963</v>
+        <v>598.6552776405965</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395931</v>
+        <v>75.63199511395908</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>225.8323962880121</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>326.6032504631754</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910657</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794427</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>50.18093349167805</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>114.2420949217166</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4542208317152</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>60.0013325925112</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4272068744005</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375605</v>
+        <v>53.50046549375603</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841858</v>
+        <v>38.95378551841856</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.9441304121513</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>31.19058361250393</v>
       </c>
       <c r="V4" t="n">
-        <v>53.14088694923777</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>302.6545028280887</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>243.8246812650382</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>113.5087961709702</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>206.7260326758775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>103.7943374556726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>13.17588958927388</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>144.285229777382</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>26.40812860655839</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859242</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948904</v>
+        <v>1.256834043948905</v>
       </c>
       <c r="H2" t="n">
         <v>12.87155165259172</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934017</v>
+        <v>48.4540944793402</v>
       </c>
       <c r="J2" t="n">
         <v>106.6722184376084</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179655</v>
+        <v>159.8740035179656</v>
       </c>
       <c r="L2" t="n">
         <v>198.3378383904669</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195432</v>
+        <v>220.6890608195433</v>
       </c>
       <c r="N2" t="n">
-        <v>224.260040546913</v>
+        <v>224.2600405469131</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223961</v>
+        <v>211.7623970223962</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624075</v>
+        <v>180.7343065624076</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634873</v>
+        <v>135.7239373634874</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320541</v>
+        <v>78.94960151320545</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648568</v>
+        <v>28.6401057764857</v>
       </c>
       <c r="T2" t="n">
-        <v>5.50179102738633</v>
+        <v>5.501791027386333</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159123</v>
+        <v>0.1005467235159124</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373788</v>
+        <v>0.6724654981373791</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168896</v>
+        <v>6.494600995168899</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446677</v>
+        <v>23.15286912446679</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358455</v>
+        <v>63.53324252358459</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987889</v>
+        <v>108.588430898789</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881181</v>
+        <v>146.0105459881182</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955981</v>
+        <v>170.3874202955982</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072299</v>
+        <v>174.89706830723</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853438</v>
+        <v>159.9966485853439</v>
       </c>
       <c r="P3" t="n">
         <v>128.4114160434439</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.8396309552205</v>
+        <v>85.83963095522054</v>
       </c>
       <c r="R3" t="n">
-        <v>41.7518490861085</v>
+        <v>41.75184908610852</v>
       </c>
       <c r="S3" t="n">
         <v>12.49075168689385</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106363</v>
+        <v>2.710507863106365</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324862</v>
+        <v>0.04424115119324865</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.563772484058228</v>
+        <v>0.5637724840582283</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717703</v>
+        <v>5.012449903717706</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695108</v>
+        <v>16.95417615695109</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291672</v>
+        <v>39.85871462291674</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876503</v>
+        <v>65.50011223876506</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625694</v>
+        <v>83.81759276625698</v>
       </c>
       <c r="M4" t="n">
-        <v>88.3738994783275</v>
+        <v>88.37389947832754</v>
       </c>
       <c r="N4" t="n">
-        <v>86.27256567411054</v>
+        <v>86.27256567411058</v>
       </c>
       <c r="O4" t="n">
-        <v>79.6866780194303</v>
+        <v>79.68667801943035</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464239</v>
+        <v>68.18571934464242</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327581</v>
+        <v>47.20825773327583</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501814</v>
+        <v>25.34926096501815</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814752</v>
+        <v>9.825016835814758</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248792</v>
+        <v>2.408846068248793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317611</v>
+        <v>0.03075122640317613</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,10 +33032,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34223,13 +34223,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299588</v>
+        <v>94.72292908299593</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441497</v>
+        <v>263.9295650441499</v>
       </c>
       <c r="L2" t="n">
         <v>380.2326379709301</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851029</v>
+        <v>439.856361085103</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623062</v>
+        <v>432.1939013623064</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634547</v>
+        <v>362.4643668634548</v>
       </c>
       <c r="P2" t="n">
         <v>271.3000189786206</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489425</v>
+        <v>125.7332381489426</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.78665119732673</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370085</v>
+        <v>235.2122289370086</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117031</v>
+        <v>378.2965115117032</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235797</v>
+        <v>493.9584501235798</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674501</v>
+        <v>320.0815314751572</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176289</v>
+        <v>411.262723417629</v>
       </c>
       <c r="P3" t="n">
-        <v>172.870229374084</v>
+        <v>312.8997772690508</v>
       </c>
       <c r="Q3" t="n">
         <v>155.9351446050481</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288217</v>
+        <v>43.2306204128822</v>
       </c>
       <c r="L4" t="n">
         <v>111.4076180265731</v>
@@ -34866,13 +34866,13 @@
         <v>127.9577764401681</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533391</v>
+        <v>130.4047380533392</v>
       </c>
       <c r="O4" t="n">
         <v>104.27180593347</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953588</v>
+        <v>65.46427860953591</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>463.221011027677</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>470.4443441954267</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>442.39092200611</v>
+        <v>625.2391015115035</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,16 +36051,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.856946167542</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>600.8044031364047</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499126</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>890.3386462596305</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>693.4400706568074</v>
+        <v>641.3060585282469</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36680,10 +36680,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36832,28 +36832,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>422.7052121445769</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>466.2986239864155</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>502.5482327048862</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37309,13 +37309,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>779.8921912661705</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>827.137011779455</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37552,10 +37552,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>895.8503640095423</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>795.0547863356102</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>643.8787818643254</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37795,13 +37795,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>80.7515943981403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,10 +38017,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>686.696796508469</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38032,13 +38032,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
